--- a/biology/Botanique/Ail_à_fleurs_de_narcisse/Ail_à_fleurs_de_narcisse.xlsx
+++ b/biology/Botanique/Ail_à_fleurs_de_narcisse/Ail_à_fleurs_de_narcisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_fleurs_de_narcisse</t>
+          <t>Ail_à_fleurs_de_narcisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium narcissiflorum
 L'ail à fleurs de narcisse (Allium narcissiflorum Vill.), appelé parfois aussi ail à feuilles de narcisse, est une espèce de plante monocotylédone appartenant au genre Allium et à la famille des Amaryllidacées. Facilement reconnaissable à son inflorescence rose à pédoncule courbé (d'où sa comparaison avec le genre Narcissus), il pousse dans les Alpes à partir de 1 500 mètres. C'est une plante assez rare, inscrite au Livre rouge de la région PACA.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_fleurs_de_narcisse</t>
+          <t>Ail_à_fleurs_de_narcisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie générale et végétative
-Plante herbacée bulbeuse à tige plus ou moins érigée, à feuilles linéaires toutes radicales, moins hautes que la tige.
-Morphologie florale
-Fleurs hermaphrodites regroupées en ombelle simple. L'ombelle comporte assez peu de fleurs (de 3 à 8), elle est longtemps pendante mais se redresse un peu en pleine floraison. Fleurs roses plus ou moins pourprées ou violacées, relativement grandes (1 à 1,5 cm), à 6 tépales souvent terminés par une petite pointe. La spathe se divise en lanières blanches moins longues que l'ombelle. Pollinisation par les insectes.
-Fruit et graines
-Les fruits sont des capsules. Dissémination barochore (les graines germent au pied de la plante mère).
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée bulbeuse à tige plus ou moins érigée, à feuilles linéaires toutes radicales, moins hautes que la tige.
 </t>
         </is>
       </c>
@@ -530,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ail_%C3%A0_fleurs_de_narcisse</t>
+          <t>Ail_à_fleurs_de_narcisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +558,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs hermaphrodites regroupées en ombelle simple. L'ombelle comporte assez peu de fleurs (de 3 à 8), elle est longtemps pendante mais se redresse un peu en pleine floraison. Fleurs roses plus ou moins pourprées ou violacées, relativement grandes (1 à 1,5 cm), à 6 tépales souvent terminés par une petite pointe. La spathe se divise en lanières blanches moins longues que l'ombelle. Pollinisation par les insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ail_à_fleurs_de_narcisse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ail_%C3%A0_fleurs_de_narcisse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des capsules. Dissémination barochore (les graines germent au pied de la plante mère).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ail_à_fleurs_de_narcisse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ail_%C3%A0_fleurs_de_narcisse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones de rusticité : 4-8
 Exposition : mi-ombre 
@@ -559,31 +648,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ail_%C3%A0_fleurs_de_narcisse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ail_à_fleurs_de_narcisse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ail_%C3%A0_fleurs_de_narcisse</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace par son bulbe, native des Alpes méridionales et du nord du Portugal, poussant de 1 500 à 2 600 mètres, sur sol calcaire (rochers et éboulis). Floraison en juillet-août.
 </t>
